--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.88938623340198</v>
+        <v>89.94806087808374</v>
       </c>
       <c r="D2" t="n">
-        <v>1.655936501747315</v>
+        <v>2.033738445346176</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.65735211285001</v>
+        <v>88.85249964247571</v>
       </c>
       <c r="D3" t="n">
-        <v>1.715548319669669</v>
+        <v>1.732125298771472</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.60794565382125</v>
+        <v>87.82061451348747</v>
       </c>
       <c r="D4" t="n">
-        <v>1.754998216648901</v>
+        <v>1.581991125924727</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.10879087072267</v>
+        <v>86.56191258101684</v>
       </c>
       <c r="D5" t="n">
-        <v>1.774754118796461</v>
+        <v>1.659116781106819</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95362621898313</v>
+        <v>85.73139968134025</v>
       </c>
       <c r="D6" t="n">
-        <v>2.218811453655611</v>
+        <v>1.930135617120804</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.66973843295885</v>
+        <v>84.82908478981928</v>
       </c>
       <c r="D7" t="n">
-        <v>1.614041508481038</v>
+        <v>1.856159425539217</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.30488288375487</v>
+        <v>84.02944595062424</v>
       </c>
       <c r="D8" t="n">
-        <v>1.705664724582564</v>
+        <v>1.764387256901</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.09241211147905</v>
+        <v>82.99740909779526</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9710169491067</v>
+        <v>1.592735299170257</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.92069702655725</v>
+        <v>81.90758328001841</v>
       </c>
       <c r="D10" t="n">
-        <v>1.937412985241083</v>
+        <v>1.85127929297758</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.11187325439012</v>
+        <v>81.11749713580879</v>
       </c>
       <c r="D11" t="n">
-        <v>2.01742117032751</v>
+        <v>1.901309883391158</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.22593753048051</v>
+        <v>79.70384484658759</v>
       </c>
       <c r="D12" t="n">
-        <v>1.795593269254268</v>
+        <v>2.034640526203187</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89405590662696</v>
+        <v>79.24774533511122</v>
       </c>
       <c r="D13" t="n">
-        <v>1.809718625721898</v>
+        <v>1.758857823067585</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.93859918218062</v>
+        <v>77.97951084007795</v>
       </c>
       <c r="D14" t="n">
-        <v>1.876090510601001</v>
+        <v>2.030848134825795</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.83620021572032</v>
+        <v>76.91577123890717</v>
       </c>
       <c r="D15" t="n">
-        <v>1.970058313626933</v>
+        <v>1.88100995871805</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.19353465477377</v>
+        <v>75.85990305058071</v>
       </c>
       <c r="D16" t="n">
-        <v>2.186698956972556</v>
+        <v>1.874705883896217</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.87776456483255</v>
+        <v>74.93641417520482</v>
       </c>
       <c r="D17" t="n">
-        <v>1.917726681185203</v>
+        <v>2.300167903584891</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.88123877100355</v>
+        <v>73.58664701981849</v>
       </c>
       <c r="D18" t="n">
-        <v>2.297583945157036</v>
+        <v>2.204294907026796</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.70548673252777</v>
+        <v>72.72430712499758</v>
       </c>
       <c r="D19" t="n">
-        <v>1.972491250713761</v>
+        <v>2.247918684924993</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.84300772294621</v>
+        <v>72.05675056953956</v>
       </c>
       <c r="D20" t="n">
-        <v>1.765254053661051</v>
+        <v>2.259222772635355</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.00012141315176</v>
+        <v>71.29959920695492</v>
       </c>
       <c r="D21" t="n">
-        <v>2.196370637910642</v>
+        <v>1.991351409730185</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.55309862240794</v>
+        <v>70.02025432306114</v>
       </c>
       <c r="D22" t="n">
-        <v>2.099155159740931</v>
+        <v>2.208557530108608</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.96401596033409</v>
+        <v>68.62790163902892</v>
       </c>
       <c r="D23" t="n">
-        <v>2.05802203597529</v>
+        <v>2.185446694516349</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.92358735021581</v>
+        <v>67.37600092341171</v>
       </c>
       <c r="D24" t="n">
-        <v>2.162162000689924</v>
+        <v>2.348068962199558</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.76245225463089</v>
+        <v>66.66187055005635</v>
       </c>
       <c r="D25" t="n">
-        <v>2.42832606829313</v>
+        <v>2.262735745358256</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.07036261713785</v>
+        <v>65.97119198763022</v>
       </c>
       <c r="D26" t="n">
-        <v>2.473481250752766</v>
+        <v>2.178451769504556</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.5598840425269</v>
+        <v>65.1999332073834</v>
       </c>
       <c r="D27" t="n">
-        <v>2.617800864638172</v>
+        <v>2.439870698338534</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.46103683377525</v>
+        <v>64.01878981232461</v>
       </c>
       <c r="D28" t="n">
-        <v>2.43129260336493</v>
+        <v>2.222124269029438</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.16234405637797</v>
+        <v>62.33525331142978</v>
       </c>
       <c r="D29" t="n">
-        <v>2.517544591987465</v>
+        <v>2.447948737624992</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.67099593901821</v>
+        <v>61.79096589489486</v>
       </c>
       <c r="D30" t="n">
-        <v>2.076963677296335</v>
+        <v>2.45169523296782</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.92181720769618</v>
+        <v>60.71041246548065</v>
       </c>
       <c r="D31" t="n">
-        <v>2.620268422662554</v>
+        <v>2.503894271151166</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.07064665607204</v>
+        <v>60.05945267792357</v>
       </c>
       <c r="D32" t="n">
-        <v>2.629810475678865</v>
+        <v>2.440359779940893</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.7507826276474</v>
+        <v>58.73334454951582</v>
       </c>
       <c r="D33" t="n">
-        <v>2.319973377941828</v>
+        <v>2.795077786997436</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.26754875797106</v>
+        <v>57.93619278101919</v>
       </c>
       <c r="D34" t="n">
-        <v>2.408459590399724</v>
+        <v>2.364356962985814</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.02764448330862</v>
+        <v>56.93413676829154</v>
       </c>
       <c r="D35" t="n">
-        <v>2.242261948174114</v>
+        <v>2.568404812513245</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.67559677942843</v>
+        <v>55.35398285308819</v>
       </c>
       <c r="D36" t="n">
-        <v>2.783560581830083</v>
+        <v>3.134079744343654</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.69940458090455</v>
+        <v>55.26173801666584</v>
       </c>
       <c r="D37" t="n">
-        <v>2.538771413484497</v>
+        <v>2.384227618890583</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.04159805992786</v>
+        <v>54.32808298375078</v>
       </c>
       <c r="D38" t="n">
-        <v>2.521054644667564</v>
+        <v>2.374799009541106</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.98277823835863</v>
+        <v>53.11366399633538</v>
       </c>
       <c r="D39" t="n">
-        <v>2.72606495205723</v>
+        <v>2.531314083066074</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.04004653128263</v>
+        <v>51.13658261448865</v>
       </c>
       <c r="D40" t="n">
-        <v>2.482892413600644</v>
+        <v>2.520660659753052</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.65706321205364</v>
+        <v>50.61359232491323</v>
       </c>
       <c r="D41" t="n">
-        <v>2.922147160834703</v>
+        <v>2.505583942711851</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.82383989350914</v>
+        <v>49.86613477192555</v>
       </c>
       <c r="D42" t="n">
-        <v>2.366501450575704</v>
+        <v>3.014095429620097</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.22741162004313</v>
+        <v>48.78112286145393</v>
       </c>
       <c r="D43" t="n">
-        <v>2.666223527754013</v>
+        <v>2.465935760768158</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.17468298224512</v>
+        <v>47.89241068180704</v>
       </c>
       <c r="D44" t="n">
-        <v>2.658469129613038</v>
+        <v>2.801442971785249</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.73640715349303</v>
+        <v>46.60447720526533</v>
       </c>
       <c r="D45" t="n">
-        <v>2.622273983246373</v>
+        <v>3.089301679872289</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.40488614526952</v>
+        <v>45.54014198044553</v>
       </c>
       <c r="D46" t="n">
-        <v>3.125015621483356</v>
+        <v>2.895662996258495</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.18662605134173</v>
+        <v>44.92199377046768</v>
       </c>
       <c r="D47" t="n">
-        <v>2.717810790738669</v>
+        <v>2.802767500067878</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.47176097753533</v>
+        <v>43.58458707359964</v>
       </c>
       <c r="D48" t="n">
-        <v>2.959465344496689</v>
+        <v>3.032331887321437</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.64159654748755</v>
+        <v>43.16073443327489</v>
       </c>
       <c r="D49" t="n">
-        <v>3.396177049907348</v>
+        <v>3.260757123339104</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.84151895317036</v>
+        <v>41.71213700114622</v>
       </c>
       <c r="D50" t="n">
-        <v>2.932051895363458</v>
+        <v>2.718367168940189</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.66887551671415</v>
+        <v>41.09528973078942</v>
       </c>
       <c r="D51" t="n">
-        <v>3.064680202962559</v>
+        <v>2.794022917757476</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.11075665328339</v>
+        <v>39.96523087499192</v>
       </c>
       <c r="D52" t="n">
-        <v>2.916029500840657</v>
+        <v>3.222434903718842</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.66625701412281</v>
+        <v>39.46396559223022</v>
       </c>
       <c r="D53" t="n">
-        <v>2.926413548783984</v>
+        <v>2.861634165309855</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.4731412513839</v>
+        <v>37.82437291777404</v>
       </c>
       <c r="D54" t="n">
-        <v>3.132428048523484</v>
+        <v>3.372736964164413</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.41098697153952</v>
+        <v>36.62442918077708</v>
       </c>
       <c r="D55" t="n">
-        <v>2.96164942774297</v>
+        <v>2.643660589221906</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.80948415556568</v>
+        <v>36.33163521160262</v>
       </c>
       <c r="D56" t="n">
-        <v>3.277879918329017</v>
+        <v>2.937010623403944</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.10348380889396</v>
+        <v>34.85056636702981</v>
       </c>
       <c r="D57" t="n">
-        <v>3.408377015222326</v>
+        <v>3.182122479898489</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.89556530637586</v>
+        <v>33.68553831096565</v>
       </c>
       <c r="D58" t="n">
-        <v>3.080848913048984</v>
+        <v>3.507689800847521</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.77182514015217</v>
+        <v>32.68971164935587</v>
       </c>
       <c r="D59" t="n">
-        <v>3.449767529859784</v>
+        <v>3.492432738817528</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.74597014999891</v>
+        <v>32.21528739605502</v>
       </c>
       <c r="D60" t="n">
-        <v>3.127156225784735</v>
+        <v>3.444639167580192</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.59060559229158</v>
+        <v>31.02368351986903</v>
       </c>
       <c r="D61" t="n">
-        <v>3.545318215857376</v>
+        <v>3.372458415861685</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.58716163963908</v>
+        <v>30.1264736904405</v>
       </c>
       <c r="D62" t="n">
-        <v>3.238700428612626</v>
+        <v>3.306686516606971</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.14234241326775</v>
+        <v>28.84455301777188</v>
       </c>
       <c r="D63" t="n">
-        <v>3.15919625038422</v>
+        <v>3.570643752395279</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.06096809593508</v>
+        <v>27.45652918423375</v>
       </c>
       <c r="D64" t="n">
-        <v>3.409301437595031</v>
+        <v>2.834837851116204</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.28556498050981</v>
+        <v>26.71620419223411</v>
       </c>
       <c r="D65" t="n">
-        <v>3.443334075671511</v>
+        <v>3.454598046654649</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.75670101511809</v>
+        <v>25.31669501541862</v>
       </c>
       <c r="D66" t="n">
-        <v>3.457887604624804</v>
+        <v>3.707709552469267</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.49522688312347</v>
+        <v>24.94151087855762</v>
       </c>
       <c r="D67" t="n">
-        <v>3.163734785099627</v>
+        <v>3.22608252984627</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.8496935458877</v>
+        <v>23.09727917711385</v>
       </c>
       <c r="D68" t="n">
-        <v>3.392263640406334</v>
+        <v>3.542270616699007</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.97732446929815</v>
+        <v>22.97728099337626</v>
       </c>
       <c r="D69" t="n">
-        <v>3.712840819998962</v>
+        <v>4.120815913549798</v>
       </c>
     </row>
   </sheetData>
